--- a/docs/assets/LoginWx1.xlsx
+++ b/docs/assets/LoginWx1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adamnorthhomefolder/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EBAD8AF-61E7-F249-B9B6-3D48DD59E5C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{353ECF34-E751-EA40-8738-E51ABBEABFAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1660" yWindow="1520" windowWidth="31000" windowHeight="18980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37340" yWindow="2520" windowWidth="31000" windowHeight="18980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="7" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Student Number</t>
   </si>
@@ -45,18 +45,6 @@
     <t>Control Hub Password</t>
   </si>
   <si>
-    <t>cholland@cb331.dc-05.com</t>
-  </si>
-  <si>
-    <t>dCloud6997!</t>
-  </si>
-  <si>
-    <t>cholland@cb403.dc-05.com</t>
-  </si>
-  <si>
-    <t>dCloud7024!</t>
-  </si>
-  <si>
     <t>cholland@cb480.dc-05.com</t>
   </si>
   <si>
@@ -201,12 +189,6 @@
     <t>dCloud6998!</t>
   </si>
   <si>
-    <t>cholland@cb498.dc-05.com</t>
-  </si>
-  <si>
-    <t>dCloud7001!</t>
-  </si>
-  <si>
     <t>cholland@cb473.dc-05.com</t>
   </si>
   <si>
@@ -217,12 +199,6 @@
   </si>
   <si>
     <t>dCloud7009!</t>
-  </si>
-  <si>
-    <t>cholland@cb475.dc-05.com</t>
-  </si>
-  <si>
-    <t>dCloud7006!</t>
   </si>
   <si>
     <t>cholland@cb301.dc-05.com</t>
@@ -291,10 +267,12 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -335,10 +313,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -348,9 +327,13 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -663,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{330AD35D-DECD-7742-A641-E8A6485DF539}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -677,7 +660,7 @@
     <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -688,8 +671,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="26" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+    <row r="2" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -700,8 +683,8 @@
       </c>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" ht="26" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+    <row r="3" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -711,8 +694,9 @@
         <v>6</v>
       </c>
       <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -724,7 +708,7 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -734,8 +718,9 @@
       <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -745,8 +730,9 @@
       <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -758,7 +744,7 @@
       </c>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -768,8 +754,9 @@
       <c r="C8" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -779,8 +766,9 @@
       <c r="C9" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -790,8 +778,9 @@
       <c r="C10" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -801,8 +790,9 @@
       <c r="C11" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -812,8 +802,9 @@
       <c r="C12" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -823,8 +814,9 @@
       <c r="C13" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -834,8 +826,9 @@
       <c r="C14" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -845,8 +838,9 @@
       <c r="C15" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -856,6 +850,7 @@
       <c r="C16" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="D16" s="4"/>
     </row>
     <row r="17" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
@@ -867,6 +862,7 @@
       <c r="C17" s="3" t="s">
         <v>34</v>
       </c>
+      <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
@@ -878,7 +874,7 @@
       <c r="C18" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="5"/>
+      <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
@@ -890,6 +886,7 @@
       <c r="C19" s="3" t="s">
         <v>38</v>
       </c>
+      <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
@@ -901,6 +898,7 @@
       <c r="C20" s="3" t="s">
         <v>40</v>
       </c>
+      <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
@@ -912,6 +910,7 @@
       <c r="C21" s="3" t="s">
         <v>42</v>
       </c>
+      <c r="D21" s="4"/>
     </row>
     <row r="22" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
@@ -923,6 +922,7 @@
       <c r="C22" s="3" t="s">
         <v>44</v>
       </c>
+      <c r="D22" s="4"/>
     </row>
     <row r="23" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
@@ -934,6 +934,7 @@
       <c r="C23" s="3" t="s">
         <v>46</v>
       </c>
+      <c r="D23" s="4"/>
     </row>
     <row r="24" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
@@ -945,6 +946,7 @@
       <c r="C24" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
@@ -956,6 +958,7 @@
       <c r="C25" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="D25" s="4"/>
     </row>
     <row r="26" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
@@ -967,6 +970,7 @@
       <c r="C26" s="3" t="s">
         <v>52</v>
       </c>
+      <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
@@ -978,6 +982,7 @@
       <c r="C27" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="D27" s="4"/>
     </row>
     <row r="28" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
@@ -989,6 +994,7 @@
       <c r="C28" s="3" t="s">
         <v>56</v>
       </c>
+      <c r="D28" s="4"/>
     </row>
     <row r="29" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
@@ -1000,6 +1006,7 @@
       <c r="C29" s="3" t="s">
         <v>58</v>
       </c>
+      <c r="D29" s="4"/>
     </row>
     <row r="30" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
@@ -1011,6 +1018,7 @@
       <c r="C30" s="3" t="s">
         <v>60</v>
       </c>
+      <c r="D30" s="4"/>
     </row>
     <row r="31" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
@@ -1022,50 +1030,7 @@
       <c r="C31" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
-        <v>32</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
-        <v>33</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
-        <v>34</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>70</v>
-      </c>
+      <c r="D31" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
